--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="352">
   <si>
     <t>Core Java</t>
   </si>
@@ -69,7 +69,8 @@
     <t>重写了equals()后还需要重写什么方法？为什么？</t>
   </si>
   <si>
-    <t>还需要重写hashCode()方法。因为在往HashSet这样的类中add元素的时候，如果不重写hashCode()方法，会导致两个对象equals()比较时返回为true时，两个对象都能被add进去，而事实上HashSet是不能add两个相同的对象的。</t>
+    <t>还需要重写hashCode()方法。
+因为在往HashSet这样的类中add元素的时候，如果不重写hashCode()方法，会导致两个对象equals()比较时返回为true时，两个对象都能被add进去，而事实上HashSet是不能add两个相同的对象的。</t>
   </si>
   <si>
     <t>面向对象</t>
@@ -105,19 +106,57 @@
     <t>ArrayList和LinkedList的区别</t>
   </si>
   <si>
+    <t>Arraylist：
+底层是基于动态数组，根据下表随机访问数组元素的效率高，向数组尾部添加元素的效率高；
+但是，删除数组中的数据以及向数组中间添加数据效率低，因为需要移动数组。
+例如最坏的情况是删除第一个数组元素，则需要将第2至第n个数组元素各向前移动一位。
+而之所以称为动态数组，是因为Arraylist在数组元素超过其容量大，Arraylist可以进行扩容（针对JDK1.8  数组扩容后的容量是扩容前的1.5倍）
+Linkedlist基于链表的动态数组，数据添加删除效率高，只需要改变指针指向即可，
+但是访问数据的平均效率低，需要对链表进行遍历。
+总结：
+对于随机访问get和set，ArrayList优于LinkedList，因为LinkedList要移动指针。
+对于新增和删除操作add和remove，LinedList比较占优势，因为ArrayList要移动数据。</t>
+  </si>
+  <si>
     <t>Array和Arrays的区别</t>
   </si>
   <si>
+    <t>ARRAY类提供了动态创建和访问 Java 数组的方法
+ARRAYS此类包含用来操作数组（比如排序和搜索）的各种方法。此类还包含一个允许将数组作为列表来查看的静态工厂。</t>
+  </si>
+  <si>
     <t>List和Vector的区别</t>
   </si>
   <si>
+    <t>vector是list的子类，list是个接口，不提供方法的实现，具体是在子类中实现，比如arraylist,linkedlist,vector,</t>
+  </si>
+  <si>
     <t>List和Set的区别</t>
   </si>
   <si>
+    <t>list方法可以允许重复的对象，而set方法不允许重复对象
+list可以插入多个null元素，而set只允许插入一个null元素
+list是一个有序的容器，保持了每个元素的插入顺序。即输出顺序就是输入顺序，而set方法是无序容器，无法保证每个元素的存储顺序，TreeSet通过 Comparator 或者 Comparable 维护了一个排序顺序</t>
+  </si>
+  <si>
     <t>ArrayList的实现原理</t>
   </si>
   <si>
+    <t>ArrayList底层使用的是数组
+扩容的方法就是 add(E e)
+其实add方法就两步，第一步：增加长度，第二步：添加元素到数组
+获取到ArrayList中elementData数组的内存空间长度
+扩容至原来的1.5倍
+再判断一下新数组的容量够不够，够了就直接使用这个长度创建新数组，不够就将数组长度设置为需要的长度</t>
+  </si>
+  <si>
     <t>HashMap和HashTable的区别</t>
+  </si>
+  <si>
+    <t>底层都是数组+链表实现
+Hashtable继承自Dictionary类，而HashMap继承自AbstractMap类
+Hashtable无论是key还是value都不能为null，线程安全，实现线程安全的方式是在修改数据时锁住整个Hashtable，效率低
+Hashmap可以存储null键和null值，线程不安全</t>
   </si>
   <si>
     <t>HashMap是如何处理Hash碰撞的</t>
@@ -255,15 +294,21 @@
     <t>Spring IoC的实现原理</t>
   </si>
   <si>
-    <t>控制反转</t>
+    <t>反转控制，依赖注入</t>
   </si>
   <si>
     <t>Spring的AOP实现原理</t>
   </si>
   <si>
+    <t>动态代理</t>
+  </si>
+  <si>
     <t>什么时候使用cglib，什么时候使用动态代理</t>
   </si>
   <si>
+    <t>如果被代理的目标对象实现了至少一个接口，则会使用JDK动态代理。所有该目标类型实现的接口都将被代理。若该目标对象没有实现任何接口，则创建一个CGLIB代理。</t>
+  </si>
+  <si>
     <t>动态代理会使用到Java中的哪几个核心类</t>
   </si>
   <si>
@@ -273,13 +318,28 @@
     <t>bean的配置文件中，配置的bean默认是单例还是多例的</t>
   </si>
   <si>
+    <t>单例
+优势：为了提高性能
+少创建实例
+减少jvm垃圾回收。
+可以快速获取到bean。
+缺点：
+单例的bean一个很大的劣势就是他不能做到线程安全！！！，由于所有请求都共享一个bean实例，所以这个bean要是有状态的一个bean的话可能在并发场景下出现问题</t>
+  </si>
+  <si>
     <t>如何在bean的配置文件中把配置的对象修改为多例的</t>
   </si>
   <si>
+    <t>在此bean节点中添加一个属性，scope="prototype"</t>
+  </si>
+  <si>
     <t>Spring中的声明式事务，如TRANSACTION_REQUIRED是什么意思？</t>
   </si>
   <si>
-    <t>如果当前没有事物则新建一个事物</t>
+    <t xml:space="preserve">如果当前没有事物则新建一个事物
+当事务方法被另一个事务方法调用时，必须指定事务应该如何传播。例如：方法可能继续在现有事务中运行，也可能开启一个新事务，并在自己的事务中运行。
+事务的传播行为可以由传播属性指定。Spring定义了7种类传播行为。
+</t>
   </si>
   <si>
     <t>Spring事务隔离级别</t>
@@ -1349,10 +1409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1456,22 +1516,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1490,14 +1588,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1507,26 +1611,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,56 +1641,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1632,7 +1693,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,37 +1795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,19 +1819,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,91 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,13 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,17 +1902,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1871,32 +1965,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1911,184 +1999,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2140,13 +2204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2203,9 +2267,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2260,9 +2321,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2273,7 +2331,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -2286,43 +2344,44 @@
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
     <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="17" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="18" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="19" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="21" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
-    <cellStyle name="输出" xfId="23" builtinId="21"/>
-    <cellStyle name="计算" xfId="24" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="26" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="28" builtinId="24"/>
-    <cellStyle name="汇总" xfId="29" builtinId="25"/>
-    <cellStyle name="好" xfId="30" builtinId="26"/>
-    <cellStyle name="适中" xfId="31" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="32" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="33" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="34" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="35" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="36" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="38" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="39" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="40" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="41" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="47" builtinId="52"/>
-    <cellStyle name="_结构化面试表格" xfId="48"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="_结构化面试表格" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2364,7 +2423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5599430" y="43275250"/>
+          <a:off x="5599430" y="51447700"/>
           <a:ext cx="1209675" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2378,6 +2437,90 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6993890</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>195580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12302490" y="18693130"/>
+          <a:ext cx="5886450" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633730</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12378055" y="22090380"/>
+          <a:ext cx="9363075" cy="4886325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2892,8 +3035,8 @@
   <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2904,23 +3047,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
-      <c r="A2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D2">
@@ -2928,13 +3071,13 @@
       </c>
     </row>
     <row r="3" s="16" customFormat="1" ht="33" spans="1:3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2947,13 +3090,13 @@
       </c>
     </row>
     <row r="5" s="30" customFormat="1" spans="1:4">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="30">
@@ -2969,11 +3112,11 @@
       </c>
     </row>
     <row r="7" s="30" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="30">
@@ -2997,7 +3140,7 @@
       </c>
     </row>
     <row r="10" s="16" customFormat="1" ht="49.5" spans="1:3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -3018,91 +3161,107 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="214.5" spans="1:3">
       <c r="A13" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="49.5" spans="2:3">
       <c r="B14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="16" customFormat="1" spans="1:3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="48"/>
-    </row>
-    <row r="16" spans="2:2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="66" spans="2:3">
       <c r="B16" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>32</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="99" spans="2:3">
       <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" s="16" customFormat="1" spans="1:3">
-      <c r="A18" s="52"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" s="16" customFormat="1" ht="82.5" spans="1:3">
+      <c r="A18" s="51"/>
       <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="48"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" s="16" customFormat="1" ht="33" spans="1:3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" s="30" customFormat="1" ht="99" spans="1:4">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>43</v>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
@@ -3110,51 +3269,51 @@
     </row>
     <row r="25" ht="33" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="33" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="33" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" s="30" customFormat="1" ht="33" spans="1:4">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>55</v>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="D30" s="30">
         <v>1</v>
@@ -3162,190 +3321,202 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" s="43" customFormat="1" spans="1:4">
-      <c r="A32" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="43">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:4">
+      <c r="A32" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:4">
-      <c r="A40" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:4">
-      <c r="A41" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>68</v>
+      <c r="C41" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42" s="30" customFormat="1" spans="1:4">
-      <c r="A42" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>71</v>
+      <c r="A42" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="D42" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:3">
       <c r="B43" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+        <v>78</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" ht="33" spans="2:3">
       <c r="B44" s="21" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" s="30" customFormat="1" spans="1:4">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>75</v>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="D45" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" ht="132" spans="2:3">
       <c r="B46" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>84</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" ht="33" spans="2:3">
+        <v>86</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" ht="115.5" spans="2:3">
       <c r="B48" s="21" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="82.5" spans="2:3">
       <c r="B49" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="20" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="20" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" s="16" customFormat="1" spans="1:3">
-      <c r="A52" s="52" t="s">
-        <v>84</v>
+      <c r="A52" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="C52" s="47"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:4">
-      <c r="A54" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:4">
-      <c r="A55" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="46" t="s">
-        <v>68</v>
+      <c r="C55" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3353,124 +3524,124 @@
     </row>
     <row r="56" ht="49.5" spans="1:2">
       <c r="A56" s="20" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" s="30" customFormat="1" spans="1:4">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="51"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="50"/>
       <c r="D57" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="58" s="16" customFormat="1" spans="1:3">
-      <c r="A58" s="52" t="s">
-        <v>92</v>
+      <c r="A58" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="48"/>
+        <v>103</v>
+      </c>
+      <c r="C58" s="47"/>
     </row>
     <row r="59" s="30" customFormat="1" spans="1:4">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="51"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="50"/>
       <c r="D59" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A61" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>98</v>
+      <c r="A61" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="D61" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="62" s="30" customFormat="1" spans="1:4">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="51"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="50"/>
       <c r="D62" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" s="30" customFormat="1" spans="1:4">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="51"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="50"/>
       <c r="D64" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="65" s="30" customFormat="1" spans="1:4">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="51"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="50"/>
       <c r="D65" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="21" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:4">
-      <c r="A68" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
+      <c r="A68" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:4">
-      <c r="A69" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="46" t="s">
-        <v>68</v>
+      <c r="C69" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3478,88 +3649,88 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="20" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="21" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="20" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="20" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C80" s="20"/>
     </row>
     <row r="81" ht="15" spans="1:4">
-      <c r="A81" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
+      <c r="A81" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:4">
-      <c r="A82" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="46" t="s">
-        <v>68</v>
+      <c r="C82" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3567,22 +3738,22 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="20" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" s="30" customFormat="1" spans="1:4">
-      <c r="A84" s="49"/>
-      <c r="B84" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>125</v>
+      <c r="A84" s="48"/>
+      <c r="B84" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="D84" s="30">
         <v>1</v>
@@ -3590,192 +3761,192 @@
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" s="30" customFormat="1" spans="1:4">
-      <c r="A87" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="50" t="s">
+      <c r="A87" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="51"/>
+      <c r="B87" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="50"/>
       <c r="D87" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="88" ht="105.75" customHeight="1" spans="2:5">
       <c r="B88" s="21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="57" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="21" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="21" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="21" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" ht="49.5" spans="2:3">
       <c r="B92" s="21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" ht="49.5" spans="2:3">
       <c r="B93" s="21" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" ht="33" spans="2:3">
       <c r="B94" s="21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:4">
-      <c r="A95" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
+      <c r="A95" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:4">
-      <c r="A96" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="46" t="s">
+      <c r="A96" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="46" t="s">
-        <v>68</v>
+      <c r="C96" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
     <row r="97" s="30" customFormat="1" spans="1:4">
-      <c r="A97" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>146</v>
+      <c r="A97" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>156</v>
       </c>
       <c r="D97" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="98" s="30" customFormat="1" ht="33" spans="1:4">
-      <c r="A98" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="51"/>
+      <c r="A98" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="50"/>
       <c r="D98" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="99" s="30" customFormat="1" spans="1:4">
-      <c r="A99" s="49"/>
-      <c r="B99" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="51"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="50"/>
       <c r="D99" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="21" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="20" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="21" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="21" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:4">
-      <c r="A105" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
+      <c r="A105" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
       <c r="D105">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:4">
-      <c r="A106" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="46" t="s">
+      <c r="A106" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="46" t="s">
-        <v>68</v>
+      <c r="C106" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3783,96 +3954,96 @@
     </row>
     <row r="107" ht="66" spans="1:3">
       <c r="A107" s="20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" ht="66" spans="2:3">
       <c r="B108" s="21" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" ht="49.5" spans="1:3">
       <c r="A109" s="20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" s="30" customFormat="1" spans="1:4">
-      <c r="A110" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="51"/>
+      <c r="A110" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" s="50"/>
       <c r="D110" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="111" ht="82.5" spans="2:3">
       <c r="B111" s="21" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="21" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" ht="33" spans="2:3">
       <c r="B113" s="21" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" ht="33" spans="2:2">
       <c r="B114" s="21" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" ht="66" spans="2:2">
       <c r="B115" s="21" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:4">
-      <c r="A116" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
+      <c r="A116" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
       <c r="D116">
         <v>1</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:4">
-      <c r="A117" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="46" t="s">
+      <c r="A117" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="46" t="s">
-        <v>68</v>
+      <c r="C117" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3880,42 +4051,42 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" s="30" customFormat="1" ht="33" spans="1:4">
-      <c r="A119" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>177</v>
+      <c r="A119" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>187</v>
       </c>
       <c r="D119" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:4">
-      <c r="A120" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="B120" s="56"/>
-      <c r="C120" s="56"/>
+      <c r="A120" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:4">
-      <c r="A121" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="46" t="s">
+      <c r="A121" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="46" t="s">
-        <v>68</v>
+      <c r="C121" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3923,46 +4094,46 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="20" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="21" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="21" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="21" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:4">
-      <c r="A126" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B126" s="56"/>
-      <c r="C126" s="56"/>
+      <c r="A126" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
       <c r="D126">
         <v>1</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:4">
-      <c r="A127" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="46" t="s">
+      <c r="A127" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="46" t="s">
-        <v>68</v>
+      <c r="C127" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3970,58 +4141,58 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="21" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" ht="49.5" spans="2:3">
       <c r="B130" s="21" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" ht="49.5" spans="1:3">
       <c r="A131" s="20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="20" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="21" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A134" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B134" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="C134" s="59" t="s">
-        <v>197</v>
+      <c r="A134" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" s="57" t="s">
+        <v>207</v>
       </c>
       <c r="D134" s="30">
         <v>1</v>
@@ -4029,112 +4200,112 @@
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="21" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A136" s="49"/>
-      <c r="B136" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="C136" s="59" t="s">
-        <v>201</v>
+      <c r="A136" s="48"/>
+      <c r="B136" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="57" t="s">
+        <v>211</v>
       </c>
       <c r="D136" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:4">
-      <c r="A137" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="B137" s="56"/>
-      <c r="C137" s="56"/>
+      <c r="A137" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55"/>
       <c r="D137">
         <v>1</v>
       </c>
     </row>
     <row r="138" ht="15" spans="1:4">
-      <c r="A138" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="46" t="s">
+      <c r="A138" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="46" t="s">
-        <v>68</v>
+      <c r="C138" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D138" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="139" s="16" customFormat="1" ht="66" spans="1:3">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C139" s="60" t="s">
-        <v>204</v>
+      <c r="A139" s="51"/>
+      <c r="B139" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="140" s="16" customFormat="1" ht="180" customHeight="1" spans="1:3">
-      <c r="A140" s="52"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C140" s="48"/>
+        <v>215</v>
+      </c>
+      <c r="C140" s="47"/>
     </row>
     <row r="141" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A141" s="49"/>
-      <c r="B141" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C141" s="51"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" s="50"/>
       <c r="D141" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="142" s="30" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A142" s="49"/>
-      <c r="B142" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>208</v>
+      <c r="A142" s="48"/>
+      <c r="B142" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>218</v>
       </c>
       <c r="D142" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="143" s="30" customFormat="1" ht="198" spans="1:4">
-      <c r="A143" s="49"/>
-      <c r="B143" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C143" s="51" t="s">
-        <v>210</v>
+      <c r="A143" s="48"/>
+      <c r="B143" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>220</v>
       </c>
       <c r="D143" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="144" s="30" customFormat="1" ht="66" spans="1:3">
-      <c r="A144" s="49"/>
-      <c r="B144" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C144" s="51"/>
+      <c r="A144" s="48"/>
+      <c r="B144" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C144" s="50"/>
     </row>
     <row r="145" s="30" customFormat="1" ht="33" spans="1:3">
-      <c r="A145" s="49"/>
-      <c r="B145" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>213</v>
+      <c r="A145" s="48"/>
+      <c r="B145" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4171,260 +4342,260 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A39:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="66.25" style="38" customWidth="1"/>
+    <col min="1" max="1" width="66.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:1">
-      <c r="A1" s="39" t="s">
-        <v>35</v>
+      <c r="A1" s="38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="71.25" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>215</v>
+      <c r="A2" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:2">
-      <c r="A3" s="39" t="s">
-        <v>216</v>
+      <c r="A3" s="38" t="s">
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" s="30" customFormat="1" ht="28.5" spans="1:2">
-      <c r="A4" s="40" t="s">
-        <v>218</v>
+      <c r="A4" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" s="30" customFormat="1" ht="28.5" spans="1:2">
-      <c r="A5" s="40" t="s">
-        <v>220</v>
+      <c r="A5" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" ht="228" spans="1:2">
+      <c r="A7" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" ht="99.75" spans="1:2">
+      <c r="A10" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" ht="99.75" spans="1:2">
+      <c r="A11" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:2">
+      <c r="A12" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" s="30" customFormat="1" ht="409.5" spans="1:2">
+      <c r="A13" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:1">
+      <c r="A14" s="38"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:1">
+      <c r="A15" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" ht="213.75" spans="1:2">
+      <c r="A16" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" ht="285" spans="1:2">
+      <c r="A17" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:1">
+      <c r="A18" s="38"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:1">
+      <c r="A19" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" s="30" customFormat="1" ht="142.5" spans="1:2">
+      <c r="A20" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" ht="228" spans="1:2">
-      <c r="A7" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" ht="99.75" spans="1:2">
-      <c r="A10" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" ht="99.75" spans="1:2">
-      <c r="A11" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="1:2">
-      <c r="A12" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" s="30" customFormat="1" ht="409.5" spans="1:2">
-      <c r="A13" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:1">
-      <c r="A14" s="39"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" ht="213.75" spans="1:2">
-      <c r="A16" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" ht="285" spans="1:2">
-      <c r="A17" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="39"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:1">
-      <c r="A19" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" s="30" customFormat="1" ht="142.5" spans="1:2">
-      <c r="A20" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>241</v>
+      <c r="B20" s="40" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="39" t="s">
-        <v>242</v>
+      <c r="A21" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" ht="156.75" spans="1:2">
-      <c r="A22" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>245</v>
+      <c r="A22" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="23" s="30" customFormat="1" ht="327.75" spans="1:2">
-      <c r="A23" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>247</v>
+      <c r="A23" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:1">
-      <c r="A24" s="39" t="s">
-        <v>248</v>
+      <c r="A24" s="38" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" ht="16.5" spans="1:1">
-      <c r="A26" s="39" t="s">
-        <v>249</v>
+      <c r="A26" s="38" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:1">
-      <c r="A27" s="39" t="s">
-        <v>250</v>
+      <c r="A27" s="38" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28" s="37" customFormat="1" ht="45" spans="1:1">
-      <c r="A28" s="42" t="s">
-        <v>251</v>
+      <c r="A28" s="41" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="29" s="30" customFormat="1" ht="16.5" spans="1:1">
-      <c r="A29" s="40" t="s">
-        <v>252</v>
+      <c r="A29" s="39" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>253</v>
+      <c r="A30" s="38" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="38"/>
     </row>
     <row r="32" ht="16.5" spans="1:1">
-      <c r="A32" s="39" t="s">
-        <v>254</v>
+      <c r="A32" s="38" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="33" s="30" customFormat="1" ht="409.5" spans="1:2">
-      <c r="A33" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>256</v>
+      <c r="A33" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:1">
-      <c r="A34" s="39" t="s">
-        <v>257</v>
+      <c r="A34" s="38" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:1">
-      <c r="A35" s="39" t="s">
-        <v>258</v>
+      <c r="A35" s="38" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:1">
-      <c r="A36" s="39" t="s">
-        <v>259</v>
+      <c r="A36" s="38" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="38"/>
     </row>
     <row r="38" ht="16.5" spans="1:1">
-      <c r="A38" s="39" t="s">
-        <v>260</v>
+      <c r="A38" s="38" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:1">
-      <c r="A39" s="39" t="s">
-        <v>261</v>
+      <c r="A39" s="38" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="38"/>
     </row>
     <row r="41" ht="16.5" spans="1:1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="38"/>
     </row>
     <row r="42" ht="16.5" spans="1:1">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4450,67 +4621,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="31" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="33" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="34" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:1">
       <c r="A5" s="34" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:1">
       <c r="A6" s="34" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="34" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="33" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="34" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:1">
       <c r="A10" s="34" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:1">
       <c r="A11" s="34" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" ht="55.5" spans="1:1">
       <c r="A12" s="34" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="34" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4593,127 +4764,127 @@
     </row>
     <row r="40" ht="42.75" spans="1:1">
       <c r="A40" s="34" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="34" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="33" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="34" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" ht="27.75" spans="1:1">
       <c r="A45" s="34" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="34" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="33" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" ht="27.75" spans="1:1">
       <c r="A48" s="34" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" ht="27.75" spans="1:1">
       <c r="A49" s="34" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="34" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" ht="27.75" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" ht="41.25" spans="1:1">
       <c r="A53" s="34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="33" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:1">
       <c r="A55" s="34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="34" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" ht="27.75" spans="1:1">
       <c r="A57" s="34" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" s="30" customFormat="1" spans="1:1">
       <c r="A59" s="36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" s="30" customFormat="1" spans="1:1">
       <c r="A60" s="36" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" s="30" customFormat="1" spans="1:1">
       <c r="A61" s="36" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" s="30" customFormat="1" spans="1:1">
       <c r="A62" s="36" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" s="30" customFormat="1" spans="1:1">
       <c r="A63" s="36" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="34" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -4766,37 +4937,37 @@
     </row>
     <row r="81" ht="42.75" spans="1:1">
       <c r="A81" s="34" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="33" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="34" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" ht="42" spans="1:1">
       <c r="A84" s="34" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="33" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" ht="27.75" spans="1:1">
       <c r="A86" s="34" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:1">
       <c r="A87" s="34" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4828,25 +4999,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.5" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="16.5" spans="2:2">
       <c r="B2" s="9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="49.5" spans="2:3">
       <c r="B3" s="9" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="33" spans="2:3">
       <c r="B4" s="11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -4869,46 +5040,46 @@
     <row r="7" s="6" customFormat="1" ht="66" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="16.5" spans="1:2">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:3">
       <c r="A9" s="14"/>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" ht="33" spans="1:3">
       <c r="A10" s="14"/>
       <c r="B10" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="14"/>
       <c r="B11" s="13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4916,36 +5087,36 @@
     <row r="13" ht="33" spans="1:3">
       <c r="A13" s="14"/>
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" ht="33" spans="1:3">
       <c r="A15" s="14"/>
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="33" spans="1:3">
       <c r="A16" s="14"/>
       <c r="B16" s="13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
@@ -4955,7 +5126,7 @@
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="15"/>
       <c r="B18" s="17" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -4964,7 +5135,7 @@
     <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="15"/>
       <c r="B19" s="17" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -4973,17 +5144,17 @@
     <row r="20" ht="33" spans="1:5">
       <c r="A20" s="15"/>
       <c r="B20" s="17" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" ht="16.5" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4991,38 +5162,38 @@
     <row r="22" ht="16.5" spans="1:3">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" ht="16.5" spans="1:3">
       <c r="A23" s="14"/>
       <c r="B23" s="13" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" ht="66" spans="1:3">
       <c r="A25" s="14"/>
       <c r="B25" s="23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
       <c r="A26" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5030,37 +5201,37 @@
     <row r="27" ht="66" spans="1:3">
       <c r="A27" s="14"/>
       <c r="B27" s="12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="99" spans="1:3">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="16.5" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5068,26 +5239,26 @@
     <row r="32" s="8" customFormat="1" ht="158.25" customHeight="1" spans="1:3">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -5095,10 +5266,10 @@
     <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="16"/>
@@ -5112,10 +5283,10 @@
     </row>
     <row r="37" ht="49.5" spans="2:3">
       <c r="B37" s="15" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5144,41 +5315,41 @@
   <sheetData>
     <row r="1" ht="81.75" customHeight="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="51.75" customHeight="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="17.25" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,15 @@
     <sheet name="coding题目" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">社招!$A$1:$D$145</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">社招!$A$1:$C$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">社招!$A$1:$D$158</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">社招!$A$1:$C$154</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="362">
   <si>
     <t>Core Java</t>
   </si>
@@ -42,7 +42,8 @@
     <t>Catched Exception/RuntimeException的区别</t>
   </si>
   <si>
-    <t>前者是代码中可捕获的预期的异常，后者是不可预期的运行时异常，比如OutOfMemoryException、NullPointException</t>
+    <t>前者是代码中可捕获的预期的异常，后者是不可预期的运行时异常，
+比如OutOfMemoryException、NullPointException</t>
   </si>
   <si>
     <t>try代码块中有return的话finally代码块中还会执行吗？</t>
@@ -79,16 +80,25 @@
     <t>abstract class和interface的区别</t>
   </si>
   <si>
-    <t>抽象类有普通方法，有抽象方法，接口JDK1.7前都是抽象方法，1.8后有default方法，抽象类单一继承，接口多实现，接口的属性只能final static，抽象类没有限制，接口的成员都是public,抽象类没有限制，设计层面抽象类is-a模式，子类必须代替父类，接口like-a模式，不要求具有is-a</t>
+    <t>抽象类单一继承，接口多实现，
+接口的属性只能final static，抽象类没有限制，
+接口的成员都是public,抽象类没有限制，
+设计层面抽象类is-a（你有什么）模式，子类必须代替父类，接口like-a（你还有什么）模式，不要求具有is-a
+继承的接口必须实现，抽象的方法可以不实现</t>
   </si>
   <si>
     <t>Override和Overwrite的区别</t>
   </si>
   <si>
+    <t>Override是方法的覆盖，overload是方法的重载</t>
+  </si>
+  <si>
     <t>final/finally/finalize的区别</t>
   </si>
   <si>
-    <t>final属于声明属性方法类，表示值不可以变，方法不可以重栽，类不可以继承 finally配合try一起使用，表示总执行， finalize是object的属性，垃圾收集器在执行调用回收对象会调用此方法，jvm不能保证此方法一定被调用</t>
+    <t>final属于声明属性方法类，表示值不可以变，方法不可以重栽，类不可以继承 
+finally配合try一起使用，表示总执行， 
+finalize是object的属性，垃圾收集器在执行调用回收对象会调用此方法，jvm不能保证此方法一定被调用</t>
   </si>
   <si>
     <t>简述public、protected、private和不加修饰符的访问权限</t>
@@ -136,7 +146,8 @@
   <si>
     <t>list方法可以允许重复的对象，而set方法不允许重复对象
 list可以插入多个null元素，而set只允许插入一个null元素
-list是一个有序的容器，保持了每个元素的插入顺序。即输出顺序就是输入顺序，而set方法是无序容器，无法保证每个元素的存储顺序，TreeSet通过 Comparator 或者 Comparable 维护了一个排序顺序</t>
+list是一个有序的容器，保持了每个元素的插入顺序。即输出顺序就是输入顺序，
+而set方法是无序容器，无法保证每个元素的存储顺序，TreeSet通过 Comparator 或者 Comparable 维护了一个排序顺序</t>
   </si>
   <si>
     <t>ArrayList的实现原理</t>
@@ -264,22 +275,62 @@
     <t>List&lt;Object&gt;和List&lt;?&gt;的区别</t>
   </si>
   <si>
+    <t>List&lt;Object&gt; ：看似用法与List一样，但是在接受其他泛型赋值时会出现编译错误。
+List&lt;?&gt;：是一个泛型，在没有赋值前，表示可以接受任何类型的集合赋值，但赋值之后不能往里面随便添加元素，但可以remove和clear，并非immutable(不可变)集合。List&lt;?&gt;一般作为参数来接收外部集合，或者返回一个具体元素类型的集合，也称为通配符集合。</t>
+  </si>
+  <si>
     <t>ExecutorService</t>
   </si>
   <si>
+    <t>是一个线程池，它可以接收任务，然后根据配置来分配线程，并控制其调度。
+ThreadPoolExecutor参数
+corePoolSize 池中所保存的线程数，包括空闲线程。
+maximumPoolSize 池中允许的最大线程数。
+keepAliveTime  当线程数大于核心时，此为终止多余的空闲等待新任务的线程的最长时间。
+workQueue 执行前用于保持任务的队列。此队列仅保持由 execute 方法提交的 Runnable 任务。</t>
+  </si>
+  <si>
     <t>Executors</t>
   </si>
   <si>
+    <t>可以创建以下六种线程池
+FixedThreadPool(n)：创建一个数量固定的线程池，超出的任务会在队列中等待空闲的线程，可用于控制程序的最大并发数。
+CachedThreadPool()：短时间内处理大量工作的线程池，会根据任务数量产生对应的线程，并试图缓存线程以便重复使用，如果限制 60 秒没被使用，则会被移除缓存。
+SingleThreadExecutor()：创建一个单线程线程池。
+ScheduledThreadPool(n)：创建一个数量固定的线程池，支持执行定时性或周期性任务。
+SingleThreadScheduledExecutor()：此线程池就是单线程的 newScheduledThreadPool。
+WorkStealingPool(n)：Java 8 新增创建线程池的方法，创建时如果不设置任何参数，则以当前机器处理器个数作为线程个数，此线程池会并行处理任务，不能保证执行顺序。</t>
+  </si>
+  <si>
+    <t>ExecutorService与Executor</t>
+  </si>
+  <si>
     <t>Semaphore</t>
   </si>
   <si>
+    <t>Semaphore 是 synchronized 的加强版，作用是控制线程的并发数量。就这一点而言，单纯的synchronized 关键字是实现不了的。</t>
+  </si>
+  <si>
     <t>CountDownLatch</t>
   </si>
   <si>
+    <t>CountDownLatch是通过一个计数器来实现的，计数器的初始值为线程的数量。每当一个线程完成了自己的任务后，计数器的值就会减1。当计数器值到达0时，它表示所有的线程已经完成了任务，然后在闭锁上等待的线程就可以恢复执行任务。
+因此CountDownLatch这个类用作这样的场景，一个线程在等待其他线程完成各自的工作后再执行。例如，应用程序的主线程希望一些初始化参数或者属性的子线程都完成后再执行。
+初始值。它决定CountDownLatch类需要等待的事件或者线程的数量。
+await() 方法。 被等待全部事件终结的线程调用。
+countDown() 。方法事件在结束执行后调用。
+await(long time, TimeUnit unit)。此方法会休眠直到被中断；</t>
+  </si>
+  <si>
     <t>BlockingQueue</t>
   </si>
   <si>
     <t>ReentrantLock</t>
+  </si>
+  <si>
+    <t>在公平的锁中，如果有另一个线程持有锁或者有其他线程在等待队列中等待这个所，那么新发出的请求的线程将被放入到队列中
+而非公平锁上，只有当锁被某个线程持有时，新发出请求的线程才会被放入队列中（此时和公平锁是一样的）。
+所以，它们的差别在于非公平锁会有更多的机会去抢占锁。</t>
   </si>
   <si>
     <t>框架</t>
@@ -339,6 +390,13 @@
     <t xml:space="preserve">如果当前没有事物则新建一个事物
 当事务方法被另一个事务方法调用时，必须指定事务应该如何传播。例如：方法可能继续在现有事务中运行，也可能开启一个新事务，并在自己的事务中运行。
 事务的传播行为可以由传播属性指定。Spring定义了7种类传播行为。
+PROPAGATION_REQUIRED 如果当前没有事务，就新建一个事务，如果已经存在一个事务中，加入到这个事务中。这是最常见的选择。
+PROPAGATION_SUPPORTS 支持当前事务，如果当前没有事务，就以非事务方式执行。
+PROPAGATION_MANDATORY 使用当前的事务，如果当前没有事务，就抛出异常。
+PROPAGATION_REQUIRES_NEW 新建事务，如果当前存在事务，把当前事务挂起。
+PROPAGATION_NOT_SUPPORTED 以非事务方式执行操作，如果当前存在事务，就把当前事务挂起。
+PROPAGATION_NEVER 以非事务方式执行，如果当前存在事务，则抛出异常。
+PROPAGATION_NESTED 如果当前存在事务，则在嵌套事务内执行。如果当前没有事务，则执行与PROPAGATION_REQUIRED类似的操作。
 </t>
   </si>
   <si>
@@ -360,6 +418,14 @@
     <t>#和$的区别</t>
   </si>
   <si>
+    <t>#{}在引用时，如果发现目标是一个字符串，则会将其值作为一个字符串拼接在sql上,即拼接时自动包裹引号
+${}在引用时，即使发现目标是一个字符串，也不会作为字符串处理，拼接在sql时不会自动包裹引号
+insert into user values (null,#{name},55); --&gt; insert into user values (null,'fff',55);
+insert into user values (null,${name},55); --&gt; insert into user values (null,fff,55);
+select * from user order by #{cname}; --&gt; select * from user order by 'age';//sql语句错误
+select * from user order by ${cname}; --&gt; select * from user order by age;</t>
+  </si>
+  <si>
     <t>如何调用一个存储过程</t>
   </si>
   <si>
@@ -373,6 +439,9 @@
   </si>
   <si>
     <t>如果我自己写个包叫java.lang，在里面自己写了个类叫String，在类加载的时候是加载我自己写的java.lang.String，还是JDK提供的java.lang.String？为什么？</t>
+  </si>
+  <si>
+    <t>类加载器优先父类加载</t>
   </si>
   <si>
     <t>ClasssLoader的类加载顺序？</t>
@@ -737,6 +806,12 @@
   </si>
   <si>
     <t>OSI七层模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http属于应用层
+UDP和tcp属于传输层
+ip属于网络层
+</t>
   </si>
   <si>
     <t>为什么更新缓存，我们一般都用delete，而不是用update。
@@ -894,11 +969,6 @@
     <t>什么是可重入锁（ReentrantLock）？</t>
   </si>
   <si>
-    <t>是以线程为单位，递归无阻塞的同步机制，比sync更强大，更灵活的锁机制，可以减少死锁发生激几率
-实现了 Lock 和 Serializable 接口。
-jdk中独占锁的实现除了使用关键字synchronized外,还可以使用ReentrantLock。虽然在性能上ReentrantLock和synchronized没有什么区别，但ReentrantLock相比synchronized而言功能更加丰富，使用起来更为灵活，也更适合复杂的并发场景。</t>
-  </si>
-  <si>
     <t>当一个线程进入某个对象的一个synchronized的实例方法后，其它线程是否可进入此对象的其它方法？</t>
   </si>
   <si>
@@ -1409,10 +1479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1513,8 +1583,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,7 +1624,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,66 +1654,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1622,6 +1665,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1641,16 +1692,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1693,7 +1763,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1805,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1883,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,97 +1919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,43 +1943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,54 +1972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1970,6 +1992,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1999,156 +2030,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2397,15 +2467,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>291354</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>713740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1501029</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>2222687</xdr:rowOff>
+      <xdr:colOff>1329055</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>2914015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2423,7 +2493,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5599430" y="51447700"/>
+          <a:off x="5427980" y="65340865"/>
           <a:ext cx="1209675" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2445,14 +2515,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6993890</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>119380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>195580</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1662430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2469,7 +2539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12302490" y="18693130"/>
+          <a:off x="12302490" y="28332430"/>
           <a:ext cx="5886450" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2487,13 +2557,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>633730</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2511,8 +2581,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378055" y="22090380"/>
+          <a:off x="12378055" y="33825180"/>
           <a:ext cx="9363075" cy="4886325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6543675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="20497800"/>
+          <a:ext cx="6543675" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,7 +2670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9813925" y="26012775"/>
+          <a:off x="9813925" y="25650825"/>
           <a:ext cx="6724650" cy="3724275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3033,10 +3145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3123,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="49.5" spans="1:3">
+    <row r="8" ht="82.5" spans="1:3">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -3134,134 +3246,137 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:3">
       <c r="B9" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="16" customFormat="1" ht="49.5" spans="1:3">
       <c r="A10" s="51"/>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="214.5" spans="1:3">
       <c r="A13" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="49.5" spans="2:3">
       <c r="B14" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" s="16" customFormat="1" spans="1:3">
       <c r="A15" s="51"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="66" spans="2:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="82.5" spans="2:3">
       <c r="B16" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="99" spans="2:3">
       <c r="B17" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" s="16" customFormat="1" ht="82.5" spans="1:3">
       <c r="A18" s="51"/>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" s="16" customFormat="1" ht="33" spans="1:3">
       <c r="A23" s="51"/>
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" s="30" customFormat="1" ht="99" spans="1:4">
       <c r="A24" s="48"/>
       <c r="B24" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
@@ -3269,51 +3384,51 @@
     </row>
     <row r="25" ht="33" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="33" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="33" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" s="30" customFormat="1" ht="33" spans="1:4">
       <c r="A30" s="48"/>
       <c r="B30" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="30">
         <v>1</v>
@@ -3321,400 +3436,339 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" s="42" customFormat="1" spans="1:4">
       <c r="A32" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" ht="66" spans="2:3">
       <c r="B33" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>67</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" ht="99" spans="2:3">
       <c r="B34" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>69</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" ht="165" spans="2:3">
       <c r="B35" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:4">
-      <c r="A40" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:4">
-      <c r="A41" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="45" t="s">
+    </row>
+    <row r="49" ht="33" spans="2:3">
+      <c r="B49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" ht="165" spans="2:3">
+      <c r="B50" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" ht="66" spans="2:3">
+      <c r="B52" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:4">
+      <c r="A53" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:4">
+      <c r="A54" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="30" customFormat="1" spans="1:4">
-      <c r="A42" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" ht="33" spans="2:3">
-      <c r="B44" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" s="30" customFormat="1" spans="1:4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49" t="s">
+      <c r="C54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" s="30" customFormat="1" spans="1:4">
+      <c r="A55" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="132" spans="2:3">
-      <c r="B46" s="21" t="s">
+      <c r="B55" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C55" s="50" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="21" t="s">
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" ht="115.5" spans="2:3">
-      <c r="B48" s="21" t="s">
+    <row r="57" ht="33" spans="2:3">
+      <c r="B57" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" ht="82.5" spans="2:3">
-      <c r="B49" s="21" t="s">
+    <row r="58" s="30" customFormat="1" spans="1:4">
+      <c r="A58" s="48"/>
+      <c r="B58" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C58" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="20" t="s">
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="132" spans="2:3">
+      <c r="B59" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="20" t="s">
+      <c r="C59" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" s="16" customFormat="1" spans="1:3">
-      <c r="A52" s="51" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C60" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="47"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="21" t="s">
+    </row>
+    <row r="61" ht="280.5" spans="2:3">
+      <c r="B61" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:4">
-      <c r="A54" s="55" t="s">
+    <row r="62" ht="82.5" spans="2:3">
+      <c r="B62" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:4">
-      <c r="A55" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="45" t="s">
+      <c r="C62" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" s="16" customFormat="1" ht="132" spans="1:3">
+      <c r="A65" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:4">
+      <c r="A67" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:4">
+      <c r="A68" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="49.5" spans="1:2">
-      <c r="A56" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" s="30" customFormat="1" spans="1:4">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" s="16" customFormat="1" spans="1:3">
-      <c r="A58" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="47"/>
-    </row>
-    <row r="59" s="30" customFormat="1" spans="1:4">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A61" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="50" t="s">
+      <c r="C68" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="49.5" spans="1:3">
+      <c r="A69" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" s="30" customFormat="1" spans="1:4">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49" t="s">
+      <c r="B69" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="21" t="s">
+      <c r="C69" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" s="30" customFormat="1" spans="1:4">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49" t="s">
+    <row r="70" s="30" customFormat="1" spans="1:4">
+      <c r="A70" s="48"/>
+      <c r="B70" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" s="30" customFormat="1" spans="1:4">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" s="16" customFormat="1" spans="1:3">
+      <c r="A71" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="21" t="s">
+      <c r="B71" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="21" t="s">
+      <c r="C71" s="47"/>
+    </row>
+    <row r="72" s="30" customFormat="1" spans="1:4">
+      <c r="A72" s="48"/>
+      <c r="B72" s="49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="68" ht="15" spans="1:4">
-      <c r="A68" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" ht="15" spans="1:4">
-      <c r="A69" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="21" t="s">
-        <v>119</v>
+      <c r="C72" s="50"/>
+      <c r="D72" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" s="30" customFormat="1" ht="66" spans="1:4">
+      <c r="A74" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" s="30" customFormat="1" spans="1:4">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="50"/>
+      <c r="D75" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="21" t="s">
+    <row r="77" s="30" customFormat="1" spans="1:4">
+      <c r="A77" s="48"/>
+      <c r="B77" s="49" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="21" t="s">
+      <c r="C77" s="50"/>
+      <c r="D77" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" s="30" customFormat="1" spans="1:4">
+      <c r="A78" s="48"/>
+      <c r="B78" s="49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>126</v>
+      <c r="C78" s="50"/>
+      <c r="D78" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="20"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="21" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="81" ht="15" spans="1:4">
       <c r="A81" s="55" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -3730,608 +3784,699 @@
         <v>2</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:1">
       <c r="A83" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="21" t="s">
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="22" t="s">
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" s="30" customFormat="1" spans="1:4">
-      <c r="A84" s="48"/>
-      <c r="B84" s="49" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="50" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D84" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="21" t="s">
+      <c r="B91" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="22" t="s">
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="21" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="B93" s="20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" s="30" customFormat="1" spans="1:4">
-      <c r="A87" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="49" t="s">
+      <c r="C93" s="20"/>
+    </row>
+    <row r="94" ht="15" spans="1:4">
+      <c r="A94" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" ht="105.75" customHeight="1" spans="2:5">
-      <c r="B88" s="21" t="s">
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="1:4">
+      <c r="A95" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="C96" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="21" t="s">
+    <row r="97" s="30" customFormat="1" spans="1:4">
+      <c r="A97" s="48"/>
+      <c r="B97" s="49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="21" t="s">
+      <c r="C97" s="50" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="21" t="s">
+      <c r="D97" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="92" ht="49.5" spans="2:3">
-      <c r="B92" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="22" t="s">
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="93" ht="49.5" spans="2:3">
-      <c r="B93" s="21" t="s">
+      <c r="C99" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="22" t="s">
+    </row>
+    <row r="100" s="30" customFormat="1" spans="1:4">
+      <c r="A100" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="49" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="94" ht="33" spans="2:3">
-      <c r="B94" s="21" t="s">
+      <c r="C100" s="50"/>
+      <c r="D100" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="105.75" customHeight="1" spans="2:5">
+      <c r="B101" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C101" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="95" ht="15" spans="1:4">
-      <c r="A95" s="55" t="s">
+      <c r="E101" s="38" t="s">
         <v>153</v>
-      </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="15" spans="1:4">
-      <c r="A96" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" s="30" customFormat="1" spans="1:4">
-      <c r="A97" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D97" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" s="30" customFormat="1" ht="33" spans="1:4">
-      <c r="A98" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" s="30" customFormat="1" spans="1:4">
-      <c r="A99" s="48"/>
-      <c r="B99" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="21" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" ht="15" spans="1:4">
-      <c r="A105" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="15" spans="1:4">
-      <c r="A106" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" ht="49.5" spans="2:3">
+      <c r="B105" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" ht="49.5" spans="2:3">
+      <c r="B106" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" ht="33" spans="2:3">
+      <c r="B107" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:4">
+      <c r="A108" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:4">
+      <c r="A109" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" ht="66" spans="1:3">
-      <c r="A107" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" ht="66" spans="2:3">
-      <c r="B108" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" ht="49.5" spans="1:3">
-      <c r="A109" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>175</v>
+      <c r="C109" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" s="30" customFormat="1" spans="1:4">
       <c r="A110" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" s="30" customFormat="1" ht="33" spans="1:4">
+      <c r="A111" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B111" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="50"/>
+      <c r="D111" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" s="30" customFormat="1" spans="1:4">
+      <c r="A112" s="48"/>
+      <c r="B112" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="50"/>
+      <c r="D112" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="50"/>
-      <c r="D110" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="82.5" spans="2:3">
-      <c r="B111" s="21" t="s">
+    </row>
+    <row r="118" ht="15" spans="1:4">
+      <c r="A118" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:4">
+      <c r="A119" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" ht="66" spans="1:3">
+      <c r="A120" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="21" t="s">
+      <c r="B120" s="21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="113" ht="33" spans="2:3">
-      <c r="B113" s="21" t="s">
+      <c r="C120" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="22" t="s">
+    </row>
+    <row r="121" ht="66" spans="2:3">
+      <c r="B121" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="114" ht="33" spans="2:2">
-      <c r="B114" s="21" t="s">
+      <c r="C121" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="115" ht="66" spans="2:2">
-      <c r="B115" s="21" t="s">
+    <row r="122" ht="49.5" spans="1:3">
+      <c r="A122" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="116" ht="15" spans="1:4">
-      <c r="A116" s="55" t="s">
+      <c r="B122" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55"/>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" ht="15" spans="1:4">
-      <c r="A117" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" s="30" customFormat="1" ht="33" spans="1:4">
-      <c r="A119" s="48" t="s">
+      <c r="C122" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="49" t="s">
+    </row>
+    <row r="123" s="30" customFormat="1" spans="1:4">
+      <c r="A123" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="50" t="s">
+      <c r="C123" s="50"/>
+      <c r="D123" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="82.5" spans="2:3">
+      <c r="B124" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" ht="15" spans="1:4">
-      <c r="A120" s="55" t="s">
+      <c r="C124" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" ht="15" spans="1:4">
-      <c r="A121" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="21" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" ht="33" spans="2:3">
+      <c r="B126" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" ht="33" spans="2:2">
+      <c r="B127" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:4">
-      <c r="A126" s="55" t="s">
+    <row r="128" ht="66" spans="2:2">
+      <c r="B128" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="55"/>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" ht="15" spans="1:4">
-      <c r="A127" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="45" t="s">
+    </row>
+    <row r="129" ht="15" spans="1:4">
+      <c r="A129" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55"/>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="15" spans="1:4">
+      <c r="A130" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="C130" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B128" s="21" t="s">
+    </row>
+    <row r="132" s="30" customFormat="1" ht="33" spans="1:4">
+      <c r="A132" s="48" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="21" t="s">
+      <c r="B132" s="49" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="130" ht="49.5" spans="2:3">
-      <c r="B130" s="21" t="s">
+      <c r="C132" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="D132" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:4">
+      <c r="A133" s="55" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="131" ht="49.5" spans="1:3">
-      <c r="A131" s="20" t="s">
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:4">
+      <c r="A134" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="21" t="s">
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="22" t="s">
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="20" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B132" s="21" t="s">
+    </row>
+    <row r="139" ht="15" spans="1:4">
+      <c r="A139" s="55" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="21" t="s">
+      <c r="B139" s="55"/>
+      <c r="C139" s="55"/>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:4">
+      <c r="A140" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="134" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A134" s="48" t="s">
+      <c r="B141" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B134" s="56" t="s">
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="57" t="s">
+    </row>
+    <row r="143" ht="49.5" spans="2:3">
+      <c r="B143" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D134" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="21" t="s">
+      <c r="C143" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C135" s="22" t="s">
+    </row>
+    <row r="144" ht="49.5" spans="1:3">
+      <c r="A144" s="20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="136" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A136" s="48"/>
-      <c r="B136" s="56" t="s">
+      <c r="B144" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C136" s="57" t="s">
+      <c r="C144" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" ht="15" spans="1:4">
-      <c r="A137" s="55" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="55"/>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" ht="15" spans="1:4">
-      <c r="A138" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="45" t="s">
+      <c r="B145" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" s="30" customFormat="1" ht="66" spans="1:4">
+      <c r="A147" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" s="30" customFormat="1" ht="66" spans="1:4">
+      <c r="A149" s="48"/>
+      <c r="B149" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D149" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="1:4">
+      <c r="A150" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:4">
+      <c r="A151" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D138" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" s="16" customFormat="1" ht="66" spans="1:3">
-      <c r="A139" s="51"/>
-      <c r="B139" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C139" s="58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="140" s="16" customFormat="1" ht="180" customHeight="1" spans="1:3">
-      <c r="A140" s="51"/>
-      <c r="B140" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C140" s="47"/>
-    </row>
-    <row r="141" s="30" customFormat="1" ht="66" spans="1:4">
-      <c r="A141" s="48"/>
-      <c r="B141" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="C141" s="50"/>
-      <c r="D141" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" s="30" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A142" s="48"/>
-      <c r="B142" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C142" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D142" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" s="30" customFormat="1" ht="198" spans="1:4">
-      <c r="A143" s="48"/>
-      <c r="B143" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="C143" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="D143" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" s="30" customFormat="1" ht="66" spans="1:3">
-      <c r="A144" s="48"/>
-      <c r="B144" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C144" s="50"/>
-    </row>
-    <row r="145" s="30" customFormat="1" ht="33" spans="1:3">
-      <c r="A145" s="48"/>
-      <c r="B145" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="C145" s="50" t="s">
+      <c r="C151" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" s="16" customFormat="1" ht="66" spans="1:3">
+      <c r="A152" s="51"/>
+      <c r="B152" s="51" t="s">
         <v>223</v>
       </c>
+      <c r="C152" s="58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" s="16" customFormat="1" ht="231" customHeight="1" spans="1:3">
+      <c r="A153" s="51"/>
+      <c r="B153" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" s="30" customFormat="1" ht="66" spans="1:4">
+      <c r="A154" s="48"/>
+      <c r="B154" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" s="50"/>
+      <c r="D154" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" s="30" customFormat="1" ht="82.5" spans="1:4">
+      <c r="A155" s="48"/>
+      <c r="B155" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C155" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" s="30" customFormat="1" ht="198" spans="1:4">
+      <c r="A156" s="48"/>
+      <c r="B156" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" s="30" customFormat="1" ht="66" spans="1:3">
+      <c r="A157" s="48"/>
+      <c r="B157" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" s="50"/>
+    </row>
+    <row r="158" s="30" customFormat="1" ht="33" spans="1:3">
+      <c r="A158" s="48"/>
+      <c r="B158" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C158" s="50" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D145">
+  <autoFilter ref="A1:D158">
     <extLst/>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A67:C67"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A150:C150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" verticalDpi="300"/>
   <headerFooter/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="39" max="16383" man="1"/>
-    <brk id="94" max="16383" man="1"/>
-    <brk id="136" max="2" man="1"/>
+    <brk id="52" max="16383" man="1"/>
+    <brk id="107" max="16383" man="1"/>
+    <brk id="149" max="2" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4342,8 +4487,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A39:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4354,55 +4499,55 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:1">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="71.25" spans="1:2">
       <c r="A2" s="38" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:2">
       <c r="A3" s="38" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" s="30" customFormat="1" ht="28.5" spans="1:2">
       <c r="A4" s="39" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" s="30" customFormat="1" ht="28.5" spans="1:2">
       <c r="A5" s="39" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:2">
       <c r="A6" s="38" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" ht="228" spans="1:2">
       <c r="A7" s="38" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
@@ -4411,40 +4556,40 @@
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="38" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" ht="99.75" spans="1:2">
+    <row r="10" ht="71.25" spans="1:2">
       <c r="A10" s="38" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="99.75" spans="1:2">
       <c r="A11" s="38" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:2">
       <c r="A12" s="38" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" s="30" customFormat="1" ht="409.5" spans="1:2">
       <c r="A13" s="39" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:1">
@@ -4452,23 +4597,23 @@
     </row>
     <row r="15" ht="16.5" spans="1:1">
       <c r="A15" s="38" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" ht="213.75" spans="1:2">
       <c r="A16" s="38" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" ht="285" spans="1:2">
       <c r="A17" s="38" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:1">
@@ -4476,44 +4621,44 @@
     </row>
     <row r="19" ht="16.5" spans="1:1">
       <c r="A19" s="38" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" s="30" customFormat="1" ht="142.5" spans="1:2">
       <c r="A20" s="39" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="38" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" ht="156.75" spans="1:2">
       <c r="A22" s="38" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" s="30" customFormat="1" ht="327.75" spans="1:2">
       <c r="A23" s="39" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:1">
       <c r="A24" s="38" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:1">
@@ -4521,27 +4666,27 @@
     </row>
     <row r="26" ht="16.5" spans="1:1">
       <c r="A26" s="38" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:1">
       <c r="A27" s="38" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" s="37" customFormat="1" ht="45" spans="1:1">
       <c r="A28" s="41" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" s="30" customFormat="1" ht="16.5" spans="1:1">
       <c r="A29" s="39" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="1:1">
       <c r="A30" s="38" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:1">
@@ -4549,30 +4694,30 @@
     </row>
     <row r="32" ht="16.5" spans="1:1">
       <c r="A32" s="38" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" s="30" customFormat="1" ht="409.5" spans="1:2">
       <c r="A33" s="39" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:1">
       <c r="A34" s="38" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:1">
       <c r="A36" s="38" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:1">
@@ -4580,12 +4725,12 @@
     </row>
     <row r="38" ht="16.5" spans="1:1">
       <c r="A38" s="38" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:1">
       <c r="A39" s="38" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:1">
@@ -4621,67 +4766,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="31" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="33" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="34" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:1">
       <c r="A5" s="34" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:1">
       <c r="A6" s="34" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="34" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="33" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="34" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:1">
       <c r="A10" s="34" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:1">
       <c r="A11" s="34" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" ht="55.5" spans="1:1">
       <c r="A12" s="34" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="34" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4764,127 +4909,127 @@
     </row>
     <row r="40" ht="42.75" spans="1:1">
       <c r="A40" s="34" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="34" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="33" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="34" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" ht="27.75" spans="1:1">
       <c r="A45" s="34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="34" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="33" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" ht="27.75" spans="1:1">
       <c r="A48" s="34" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" ht="27.75" spans="1:1">
       <c r="A49" s="34" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="34" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" ht="27.75" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" ht="41.25" spans="1:1">
       <c r="A53" s="34" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="33" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:1">
       <c r="A55" s="34" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="34" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" ht="27.75" spans="1:1">
       <c r="A57" s="34" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" s="30" customFormat="1" spans="1:1">
       <c r="A59" s="36" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" s="30" customFormat="1" spans="1:1">
       <c r="A60" s="36" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" s="30" customFormat="1" spans="1:1">
       <c r="A61" s="36" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" s="30" customFormat="1" spans="1:1">
       <c r="A62" s="36" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" s="30" customFormat="1" spans="1:1">
       <c r="A63" s="36" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="34" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -4937,37 +5082,37 @@
     </row>
     <row r="81" ht="42.75" spans="1:1">
       <c r="A81" s="34" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="33" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="34" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" ht="42" spans="1:1">
       <c r="A84" s="34" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="33" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" ht="27.75" spans="1:1">
       <c r="A86" s="34" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:1">
       <c r="A87" s="34" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4999,25 +5144,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.5" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="16.5" spans="2:2">
       <c r="B2" s="9" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="49.5" spans="2:3">
       <c r="B3" s="9" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="33" spans="2:3">
       <c r="B4" s="11" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -5033,53 +5178,53 @@
     <row r="6" s="6" customFormat="1" ht="16.5" spans="1:3">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="66" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="16.5" spans="1:2">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:3">
       <c r="A9" s="14"/>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" ht="33" spans="1:3">
       <c r="A10" s="14"/>
       <c r="B10" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="14"/>
       <c r="B11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5087,36 +5232,36 @@
     <row r="13" ht="33" spans="1:3">
       <c r="A13" s="14"/>
       <c r="B13" s="13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" ht="33" spans="1:3">
       <c r="A15" s="14"/>
       <c r="B15" s="13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="33" spans="1:3">
       <c r="A16" s="14"/>
       <c r="B16" s="13" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
@@ -5126,7 +5271,7 @@
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="15"/>
       <c r="B18" s="17" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -5135,7 +5280,7 @@
     <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="15"/>
       <c r="B19" s="17" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -5144,17 +5289,17 @@
     <row r="20" ht="33" spans="1:5">
       <c r="A20" s="15"/>
       <c r="B20" s="17" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" ht="16.5" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5162,38 +5307,38 @@
     <row r="22" ht="16.5" spans="1:3">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" ht="16.5" spans="1:3">
       <c r="A23" s="14"/>
       <c r="B23" s="13" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" ht="66" spans="1:3">
       <c r="A25" s="14"/>
       <c r="B25" s="23" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
       <c r="A26" s="15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5201,37 +5346,37 @@
     <row r="27" ht="66" spans="1:3">
       <c r="A27" s="14"/>
       <c r="B27" s="12" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="99" spans="1:3">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="16.5" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5239,26 +5384,26 @@
     <row r="32" s="8" customFormat="1" ht="158.25" customHeight="1" spans="1:3">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -5266,10 +5411,10 @@
     <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="16"/>
@@ -5283,10 +5428,10 @@
     </row>
     <row r="37" ht="49.5" spans="2:3">
       <c r="B37" s="15" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5315,41 +5460,41 @@
   <sheetData>
     <row r="1" ht="81.75" customHeight="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="51.75" customHeight="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="17.25" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="364">
   <si>
     <t>Core Java</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>HashMap是如何处理Hash碰撞的</t>
+  </si>
+  <si>
+    <t>链表法就是将相同hash值的对象组织成一个链表放在hash值对应的槽位（java）
+开放地址法是通过一个探测算法，当某个槽位已经被占据的情况下继续查找下一个可以使用的槽位。
+Java采用的是链表法
+将新添加的 Entry 对象放入 table 数组的 bucketIndex 索引处——如果 bucketIndex 索引处已经有了一个 Entry 对象，那新添加的 Entry 对象指向原有的 Entry 对象（产生一个 Entry 链）
+HashMap里面没有出现hash冲突时，没有形成单链表时，hashmap查找元素很快,get()方法能够直接定位到元素，
+但是出现单链表后，单个bucket 里存储的不是一个 Entry，而是一个 Entry 链，系统只能必须按顺序遍历每个 Entry，直到找到想搜索的 Entry 为止</t>
   </si>
   <si>
     <t>HashMap的实现原理</t>
@@ -236,7 +244,14 @@
     <t>ThreadLocal的作用</t>
   </si>
   <si>
-    <t>有threadLocalMap数据，key是当前线程，value是用户需存的值，作用提供线程内的局部变量</t>
+    <t xml:space="preserve">表示线程的局部变量，它确保每个线程的ThreadLocal变量都是各自独立的
+不会提供锁，使用空间换时间的手段，为每个线程提供变量的独立副本，保证线程安全
+从性能上来说适合并发不是很高的时候，但是作为一套与锁没有关系的线程解决方案，在高并发量的场景，使用ThreadLocal可以在一定程度上减少锁的竞争
+相当于全局的Map&lt;Thread,Object&gt;
+每个线程获取ThreadLocal变量时，使用Thread自身作为key
+ThreadLocal一定要在finally中清除
+当前代码在执行完后可能会被重新放入线程池中，如果没有清除，这个线程在执行其他代码的时候会把状态进去
+</t>
   </si>
   <si>
     <t>volatile关键字的意义和使用场景</t>
@@ -969,6 +984,13 @@
     <t>什么是可重入锁（ReentrantLock）？</t>
   </si>
   <si>
+    <t>可以代替syn
+可以重入锁，一个线程可多次获取同一个锁
+lock()方法可获取锁
+tryLock()方法可以尝试获取锁并制定超时时间
+（比syn好，因为syn要么获取锁要么继续等下去，在用reentrantLock时，我们使用tryLock，如果失败了就不用等待下去）</t>
+  </si>
+  <si>
     <t>当一个线程进入某个对象的一个synchronized的实例方法后，其它线程是否可进入此对象的其它方法？</t>
   </si>
   <si>
@@ -1479,10 +1501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1583,9 +1605,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1595,10 +1619,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1609,15 +1639,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,8 +1668,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1646,7 +1700,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,59 +1738,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1763,67 +1785,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,7 +1815,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,55 +1875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,13 +1905,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,13 +1959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,6 +1994,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1992,30 +2038,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,17 +2077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,31 +2096,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2107,118 +2129,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2493,7 +2515,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5427980" y="65340865"/>
+          <a:off x="5427980" y="68693665"/>
           <a:ext cx="1209675" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2539,7 +2561,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12302490" y="28332430"/>
+          <a:off x="12302490" y="31685230"/>
           <a:ext cx="5886450" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2581,7 +2603,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378055" y="33825180"/>
+          <a:off x="12378055" y="37177980"/>
           <a:ext cx="9363075" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2623,7 +2645,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5308600" y="20497800"/>
+          <a:off x="5308600" y="23850600"/>
           <a:ext cx="6543675" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2670,7 +2692,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9813925" y="25650825"/>
+          <a:off x="9813925" y="25831800"/>
           <a:ext cx="6724650" cy="3724275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3147,8 +3169,8 @@
   <sheetPr/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3329,54 +3351,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" ht="148.5" spans="2:3">
       <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
+      <c r="C19" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" s="16" customFormat="1" ht="33" spans="1:3">
       <c r="A23" s="51"/>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" s="30" customFormat="1" ht="99" spans="1:4">
       <c r="A24" s="48"/>
       <c r="B24" s="49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="30">
         <v>1</v>
@@ -3384,51 +3409,51 @@
     </row>
     <row r="25" ht="33" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="33" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="148.5" spans="2:3">
       <c r="B27" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="33" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" s="30" customFormat="1" ht="33" spans="1:4">
       <c r="A30" s="48"/>
       <c r="B30" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="30">
         <v>1</v>
@@ -3436,18 +3461,18 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" s="42" customFormat="1" spans="1:4">
       <c r="A32" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="42">
         <v>1</v>
@@ -3455,65 +3480,65 @@
     </row>
     <row r="33" ht="66" spans="2:3">
       <c r="B33" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="99" spans="2:3">
       <c r="B34" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" ht="165" spans="2:3">
       <c r="B35" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="33" spans="2:3">
       <c r="B49" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="165" spans="2:3">
       <c r="B50" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" ht="66" spans="2:3">
       <c r="B52" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:4">
       <c r="A53" s="55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -3529,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3537,13 +3562,13 @@
     </row>
     <row r="55" s="30" customFormat="1" spans="1:4">
       <c r="A55" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D55" s="30">
         <v>1</v>
@@ -3551,27 +3576,27 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" ht="33" spans="2:3">
       <c r="B57" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" s="30" customFormat="1" spans="1:4">
       <c r="A58" s="48"/>
       <c r="B58" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D58" s="30">
         <v>1</v>
@@ -3579,68 +3604,68 @@
     </row>
     <row r="59" ht="132" spans="2:3">
       <c r="B59" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" ht="280.5" spans="2:3">
       <c r="B61" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="82.5" spans="2:3">
       <c r="B62" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" s="16" customFormat="1" ht="132" spans="1:3">
       <c r="A65" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:4">
       <c r="A67" s="55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -3656,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3664,19 +3689,19 @@
     </row>
     <row r="69" ht="49.5" spans="1:3">
       <c r="A69" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" s="30" customFormat="1" spans="1:4">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" s="50"/>
       <c r="D70" s="30">
@@ -3685,17 +3710,17 @@
     </row>
     <row r="71" s="16" customFormat="1" spans="1:3">
       <c r="A71" s="51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C71" s="47"/>
     </row>
     <row r="72" s="30" customFormat="1" spans="1:4">
       <c r="A72" s="48"/>
       <c r="B72" s="49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C72" s="50"/>
       <c r="D72" s="30">
@@ -3704,18 +3729,18 @@
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" s="30" customFormat="1" ht="66" spans="1:4">
       <c r="A74" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74" s="30">
         <v>1</v>
@@ -3724,7 +3749,7 @@
     <row r="75" s="30" customFormat="1" spans="1:4">
       <c r="A75" s="48"/>
       <c r="B75" s="49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="50"/>
       <c r="D75" s="30">
@@ -3733,13 +3758,13 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" s="30" customFormat="1" spans="1:4">
       <c r="A77" s="48"/>
       <c r="B77" s="49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" s="50"/>
       <c r="D77" s="30">
@@ -3749,7 +3774,7 @@
     <row r="78" s="30" customFormat="1" spans="1:4">
       <c r="A78" s="48"/>
       <c r="B78" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="30">
@@ -3758,17 +3783,17 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:4">
       <c r="A81" s="55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -3784,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3792,72 +3817,72 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C93" s="20"/>
     </row>
     <row r="94" ht="15" spans="1:4">
       <c r="A94" s="55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -3873,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3881,22 +3906,22 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" s="30" customFormat="1" spans="1:4">
       <c r="A97" s="48"/>
       <c r="B97" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D97" s="30">
         <v>1</v>
@@ -3904,26 +3929,26 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" s="30" customFormat="1" spans="1:4">
       <c r="A100" s="48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C100" s="50"/>
       <c r="D100" s="30">
@@ -3932,57 +3957,57 @@
     </row>
     <row r="101" ht="105.75" customHeight="1" spans="2:5">
       <c r="B101" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" ht="49.5" spans="2:3">
       <c r="B105" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" ht="49.5" spans="2:3">
       <c r="B106" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" ht="33" spans="2:3">
       <c r="B107" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:4">
       <c r="A108" s="55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -3998,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4006,13 +4031,13 @@
     </row>
     <row r="110" s="30" customFormat="1" spans="1:4">
       <c r="A110" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B110" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D110" s="30">
         <v>1</v>
@@ -4020,10 +4045,10 @@
     </row>
     <row r="111" s="30" customFormat="1" ht="33" spans="1:4">
       <c r="A111" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="50"/>
       <c r="D111" s="30">
@@ -4033,7 +4058,7 @@
     <row r="112" s="30" customFormat="1" spans="1:4">
       <c r="A112" s="48"/>
       <c r="B112" s="49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C112" s="50"/>
       <c r="D112" s="30">
@@ -4042,38 +4067,38 @@
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:4">
       <c r="A118" s="55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -4089,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4097,40 +4122,40 @@
     </row>
     <row r="120" ht="66" spans="1:3">
       <c r="A120" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" ht="66" spans="2:3">
       <c r="B121" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" ht="49.5" spans="1:3">
       <c r="A122" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" s="30" customFormat="1" spans="1:4">
       <c r="A123" s="48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C123" s="50"/>
       <c r="D123" s="30">
@@ -4139,38 +4164,38 @@
     </row>
     <row r="124" ht="82.5" spans="2:3">
       <c r="B124" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" ht="33" spans="2:3">
       <c r="B126" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" ht="33" spans="2:2">
       <c r="B127" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" ht="66" spans="2:2">
       <c r="B128" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" ht="15" spans="1:4">
       <c r="A129" s="55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -4186,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4194,18 +4219,18 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" s="30" customFormat="1" ht="33" spans="1:4">
       <c r="A132" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B132" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D132" s="30">
         <v>1</v>
@@ -4213,7 +4238,7 @@
     </row>
     <row r="133" ht="15" spans="1:4">
       <c r="A133" s="55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -4229,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4237,30 +4262,30 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" ht="15" spans="1:4">
       <c r="A139" s="55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -4276,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4284,58 +4309,58 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" ht="49.5" spans="2:3">
       <c r="B143" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" ht="49.5" spans="1:3">
       <c r="A144" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" s="30" customFormat="1" ht="66" spans="1:4">
       <c r="A147" s="48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B147" s="56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C147" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D147" s="30">
         <v>1</v>
@@ -4343,19 +4368,19 @@
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" s="30" customFormat="1" ht="66" spans="1:4">
       <c r="A149" s="48"/>
       <c r="B149" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D149" s="30">
         <v>1</v>
@@ -4363,7 +4388,7 @@
     </row>
     <row r="150" ht="15" spans="1:4">
       <c r="A150" s="55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -4379,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D151" s="30">
         <v>1</v>
@@ -4388,25 +4413,25 @@
     <row r="152" s="16" customFormat="1" ht="66" spans="1:3">
       <c r="A152" s="51"/>
       <c r="B152" s="51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C152" s="58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="153" s="16" customFormat="1" ht="231" customHeight="1" spans="1:3">
       <c r="A153" s="51"/>
       <c r="B153" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" s="30" customFormat="1" ht="66" spans="1:4">
       <c r="A154" s="48"/>
       <c r="B154" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C154" s="50"/>
       <c r="D154" s="30">
@@ -4416,10 +4441,10 @@
     <row r="155" s="30" customFormat="1" ht="82.5" spans="1:4">
       <c r="A155" s="48"/>
       <c r="B155" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D155" s="30">
         <v>1</v>
@@ -4428,10 +4453,10 @@
     <row r="156" s="30" customFormat="1" ht="198" spans="1:4">
       <c r="A156" s="48"/>
       <c r="B156" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D156" s="30">
         <v>1</v>
@@ -4440,17 +4465,17 @@
     <row r="157" s="30" customFormat="1" ht="66" spans="1:3">
       <c r="A157" s="48"/>
       <c r="B157" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C157" s="50"/>
     </row>
     <row r="158" s="30" customFormat="1" ht="33" spans="1:3">
       <c r="A158" s="48"/>
       <c r="B158" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4487,8 +4512,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4499,55 +4524,55 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:1">
       <c r="A1" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="71.25" spans="1:2">
       <c r="A2" s="38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:2">
       <c r="A3" s="38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" s="30" customFormat="1" ht="28.5" spans="1:2">
       <c r="A4" s="39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" s="30" customFormat="1" ht="28.5" spans="1:2">
       <c r="A5" s="39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:2">
       <c r="A6" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" ht="228" spans="1:2">
       <c r="A7" s="38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
@@ -4556,40 +4581,40 @@
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" ht="71.25" spans="1:2">
+    <row r="10" ht="85.5" spans="1:2">
       <c r="A10" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" ht="99.75" spans="1:2">
       <c r="A11" s="38" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:2">
       <c r="A12" s="38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" s="30" customFormat="1" ht="409.5" spans="1:2">
       <c r="A13" s="39" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:1">
@@ -4597,23 +4622,23 @@
     </row>
     <row r="15" ht="16.5" spans="1:1">
       <c r="A15" s="38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" ht="213.75" spans="1:2">
       <c r="A16" s="38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" ht="285" spans="1:2">
       <c r="A17" s="38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:1">
@@ -4621,44 +4646,44 @@
     </row>
     <row r="19" ht="16.5" spans="1:1">
       <c r="A19" s="38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" s="30" customFormat="1" ht="142.5" spans="1:2">
       <c r="A20" s="39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" ht="156.75" spans="1:2">
       <c r="A22" s="38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" s="30" customFormat="1" ht="327.75" spans="1:2">
       <c r="A23" s="39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:1">
       <c r="A24" s="38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:1">
@@ -4666,27 +4691,27 @@
     </row>
     <row r="26" ht="16.5" spans="1:1">
       <c r="A26" s="38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:1">
       <c r="A27" s="38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" s="37" customFormat="1" ht="45" spans="1:1">
       <c r="A28" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" s="30" customFormat="1" ht="16.5" spans="1:1">
       <c r="A29" s="39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="1:1">
       <c r="A30" s="38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:1">
@@ -4694,30 +4719,30 @@
     </row>
     <row r="32" ht="16.5" spans="1:1">
       <c r="A32" s="38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" s="30" customFormat="1" ht="409.5" spans="1:2">
       <c r="A33" s="39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:1">
       <c r="A34" s="38" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:1">
       <c r="A36" s="38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:1">
@@ -4725,12 +4750,12 @@
     </row>
     <row r="38" ht="16.5" spans="1:1">
       <c r="A38" s="38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:1">
       <c r="A39" s="38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:1">
@@ -4766,67 +4791,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:1">
       <c r="A5" s="34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:1">
       <c r="A6" s="34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:1">
       <c r="A10" s="34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:1">
       <c r="A11" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" ht="55.5" spans="1:1">
       <c r="A12" s="34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4909,127 +4934,127 @@
     </row>
     <row r="40" ht="42.75" spans="1:1">
       <c r="A40" s="34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" ht="27.75" spans="1:1">
       <c r="A45" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" ht="27.75" spans="1:1">
       <c r="A48" s="34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" ht="27.75" spans="1:1">
       <c r="A49" s="34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" ht="27.75" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" ht="41.25" spans="1:1">
       <c r="A53" s="34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="33" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:1">
       <c r="A55" s="34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" ht="27.75" spans="1:1">
       <c r="A57" s="34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" s="30" customFormat="1" spans="1:1">
       <c r="A59" s="36" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" s="30" customFormat="1" spans="1:1">
       <c r="A60" s="36" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" s="30" customFormat="1" spans="1:1">
       <c r="A61" s="36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" s="30" customFormat="1" spans="1:1">
       <c r="A62" s="36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" s="30" customFormat="1" spans="1:1">
       <c r="A63" s="36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="34" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -5082,37 +5107,37 @@
     </row>
     <row r="81" ht="42.75" spans="1:1">
       <c r="A81" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="33" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="34" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" ht="42" spans="1:1">
       <c r="A84" s="34" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" ht="27.75" spans="1:1">
       <c r="A86" s="34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:1">
       <c r="A87" s="34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5144,25 +5169,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.5" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="16.5" spans="2:2">
       <c r="B2" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="49.5" spans="2:3">
       <c r="B3" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="33" spans="2:3">
       <c r="B4" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -5185,46 +5210,46 @@
     <row r="7" s="6" customFormat="1" ht="66" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="16.5" spans="1:2">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:3">
       <c r="A9" s="14"/>
       <c r="B9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" ht="33" spans="1:3">
       <c r="A10" s="14"/>
       <c r="B10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="14"/>
       <c r="B11" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5232,36 +5257,36 @@
     <row r="13" ht="33" spans="1:3">
       <c r="A13" s="14"/>
       <c r="B13" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" ht="33" spans="1:3">
       <c r="A15" s="14"/>
       <c r="B15" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="33" spans="1:3">
       <c r="A16" s="14"/>
       <c r="B16" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
@@ -5271,7 +5296,7 @@
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="15"/>
       <c r="B18" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -5280,7 +5305,7 @@
     <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="15"/>
       <c r="B19" s="17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -5289,17 +5314,17 @@
     <row r="20" ht="33" spans="1:5">
       <c r="A20" s="15"/>
       <c r="B20" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" ht="16.5" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5307,38 +5332,38 @@
     <row r="22" ht="16.5" spans="1:3">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" ht="16.5" spans="1:3">
       <c r="A23" s="14"/>
       <c r="B23" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" ht="66" spans="1:3">
       <c r="A25" s="14"/>
       <c r="B25" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
       <c r="A26" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5346,37 +5371,37 @@
     <row r="27" ht="66" spans="1:3">
       <c r="A27" s="14"/>
       <c r="B27" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="99" spans="1:3">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="16.5" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5384,26 +5409,26 @@
     <row r="32" s="8" customFormat="1" ht="158.25" customHeight="1" spans="1:3">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" s="8" customFormat="1" ht="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -5411,10 +5436,10 @@
     <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="16"/>
@@ -5428,10 +5453,10 @@
     </row>
     <row r="37" ht="49.5" spans="2:3">
       <c r="B37" s="15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5460,41 +5485,41 @@
   <sheetData>
     <row r="1" ht="81.75" customHeight="1" spans="2:3">
       <c r="B1" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="51.75" customHeight="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="17.25" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,9 @@
     <t>Spring的AOP实现原理</t>
   </si>
   <si>
-    <t>动态代理</t>
+    <t>动态代理
+JDK 动态代理，JDK 动态代理的类必须实现一个接口，而且生成的代理类是其接口的实现类，也就是被代理的类的兄弟类，由JDK内部实现
+cglib代理的类，无需强制实现接口，其生成的代理类 是 被代理类的子类，并且重写的被代理类的方法，而且需要额外的引入Jar</t>
   </si>
   <si>
     <t>什么时候使用cglib，什么时候使用动态代理</t>
@@ -1501,10 +1503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1605,30 +1607,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1639,11 +1630,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1662,14 +1652,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,7 +1691,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1692,7 +1699,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1700,15 +1715,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,28 +1736,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1785,36 +1787,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1827,13 +1799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,7 +1817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,25 +1841,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,19 +1883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,7 +1913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,43 +1949,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1990,15 +1992,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2033,11 +2026,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2057,22 +2056,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,36 +2075,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2129,118 +2131,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2515,7 +2517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5427980" y="68693665"/>
+          <a:off x="5427980" y="69531865"/>
           <a:ext cx="1209675" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2561,7 +2563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12302490" y="31685230"/>
+          <a:off x="12302490" y="32523430"/>
           <a:ext cx="5886450" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2603,7 +2605,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378055" y="37177980"/>
+          <a:off x="12378055" y="38016180"/>
           <a:ext cx="9363075" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3169,8 +3171,8 @@
   <sheetPr/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3574,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" ht="82.5" spans="2:3">
       <c r="B56" s="21" t="s">
         <v>87</v>
       </c>
@@ -4512,7 +4514,7 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -3171,8 +3171,8 @@
   <sheetPr/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="B157" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4514,8 +4514,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/多线程/多线程相关问题.xlsx
+++ b/多线程/多线程相关问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="社招" sheetId="1" r:id="rId1"/>
@@ -1505,8 +1505,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1607,8 +1607,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1623,34 +1665,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -1660,14 +1675,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1682,38 +1705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -1721,16 +1712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,9 +1727,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1787,7 +1787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,7 +1841,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,19 +1901,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,73 +1949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,49 +1967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,21 +1997,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2026,17 +2011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2047,15 +2026,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2085,6 +2055,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2101,10 +2101,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2113,16 +2113,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2131,118 +2131,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2621,14 +2621,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4080510</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6543675</xdr:colOff>
+      <xdr:colOff>6534785</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2647,7 +2647,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5308600" y="23850600"/>
+          <a:off x="5299710" y="23850600"/>
           <a:ext cx="6543675" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3171,8 +3171,8 @@
   <sheetPr/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="B157" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4514,7 +4514,7 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
